--- a/com.tyss.studentmanagementframework/src/test/resources/StudentManagement.xlsx
+++ b/com.tyss.studentmanagementframework/src/test/resources/StudentManagement.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5fd8f0ac56cb2c71/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakhi\git\TeamProject\com.tyss.studentmanagementframework\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{F28BD52F-1E7A-42BE-A864-6BC07E139595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C4596E-DD22-4A4F-A44F-B7FE5B653ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5F62F839-9D1D-4040-A177-5D7C3FBD7F35}"/>
+    <workbookView xWindow="1512" yWindow="1536" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{5F62F839-9D1D-4040-A177-5D7C3FBD7F35}"/>
   </bookViews>
   <sheets>
     <sheet name="Classroom" sheetId="1" r:id="rId1"/>
+    <sheet name="AddTeacher" sheetId="2" r:id="rId2"/>
+    <sheet name="AllTeachers" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>Tc_Id</t>
   </si>
@@ -50,16 +52,102 @@
   </si>
   <si>
     <t>Search</t>
+  </si>
+  <si>
+    <t>Tc_01</t>
+  </si>
+  <si>
+    <t>Index_No</t>
+  </si>
+  <si>
+    <t>Full_Name</t>
+  </si>
+  <si>
+    <t>Name_Intial</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Phno</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Photo</t>
+  </si>
+  <si>
+    <t>Aradhya</t>
+  </si>
+  <si>
+    <t>bangalore</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>892-456-8989</t>
+  </si>
+  <si>
+    <t>C:\Users\sakhi\Downloads\WhatsApp Image 2022-08-04 at 15.37.34.jpeg</t>
+  </si>
+  <si>
+    <t>zxx@gmail.com</t>
+  </si>
+  <si>
+    <t>Aradhya A</t>
+  </si>
+  <si>
+    <t>search</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Kalavati</t>
+  </si>
+  <si>
+    <t>name intial</t>
+  </si>
+  <si>
+    <t>Kalavati krishnan</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>Bengaluru</t>
+  </si>
+  <si>
+    <t>phone no</t>
+  </si>
+  <si>
+    <t>777-888-9999</t>
+  </si>
+  <si>
+    <t>Inaya harpreet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -82,13 +170,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -403,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1C79AA5-8234-4F13-BF01-B15408781F23}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -449,4 +540,146 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7332165E-EE68-4ACD-AB10-562959A5A3C8}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="20.5546875" customWidth="1"/>
+    <col min="8" max="8" width="21.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{ECB3B368-3927-4B1C-B5F4-FC8E6881D470}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79C295C5-3059-4021-9B7B-5E8AF3E18E33}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/com.tyss.studentmanagementframework/src/test/resources/StudentManagement.xlsx
+++ b/com.tyss.studentmanagementframework/src/test/resources/StudentManagement.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5fd8f0ac56cb2c71/Desktop/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{F28BD52F-1E7A-42BE-A864-6BC07E139595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5F62F839-9D1D-4040-A177-5D7C3FBD7F35}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12120" windowHeight="4185"/>
   </bookViews>
   <sheets>
     <sheet name="Classroom" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Tc_Id</t>
   </si>
@@ -50,12 +45,30 @@
   </si>
   <si>
     <t>Search</t>
+  </si>
+  <si>
+    <t>addstudent dropdown</t>
+  </si>
+  <si>
+    <t>Grade 1</t>
+  </si>
+  <si>
+    <t>Grade 2</t>
+  </si>
+  <si>
+    <t>Grade 3</t>
+  </si>
+  <si>
+    <t>LKG</t>
+  </si>
+  <si>
+    <t>UKG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -400,20 +413,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1C79AA5-8234-4F13-BF01-B15408781F23}">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -426,8 +440,11 @@
       <c r="D1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -440,10 +457,36 @@
       <c r="D2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/com.tyss.studentmanagementframework/src/test/resources/StudentManagement.xlsx
+++ b/com.tyss.studentmanagementframework/src/test/resources/StudentManagement.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakhi\git\TeamProject\com.tyss.studentmanagementframework\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC71B51-1202-4442-860A-ABB3A99326DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995B6BE4-F50D-4BD0-A4BD-A2D78C3EFEAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1512" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5F62F839-9D1D-4040-A177-5D7C3FBD7F35}"/>
+    <workbookView xWindow="1860" yWindow="1884" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{5F62F839-9D1D-4040-A177-5D7C3FBD7F35}"/>
   </bookViews>
   <sheets>
     <sheet name="Classroom" sheetId="1" r:id="rId1"/>
-    <sheet name="AddTeacher" sheetId="2" r:id="rId2"/>
-    <sheet name="AllTeachers" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="AddTeacher" sheetId="2" r:id="rId3"/>
+    <sheet name="AllTeachers" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
   <si>
     <t>Tc_Id</t>
   </si>
@@ -148,6 +149,63 @@
   </si>
   <si>
     <t>UKG</t>
+  </si>
+  <si>
+    <t>indexNumber</t>
+  </si>
+  <si>
+    <t>fullName</t>
+  </si>
+  <si>
+    <t>nameInitials</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>phoneNumber</t>
+  </si>
+  <si>
+    <t>dateOfBirth</t>
+  </si>
+  <si>
+    <t>VisibleText</t>
+  </si>
+  <si>
+    <t>photoPath</t>
+  </si>
+  <si>
+    <t>Bentley</t>
+  </si>
+  <si>
+    <t>south end circle</t>
+  </si>
+  <si>
+    <t>ben123@gmail.com</t>
+  </si>
+  <si>
+    <t>222-222-2222</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>C:\Users\Hp Lap\Desktop\bentley.jpg</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>sam123@gmail.com</t>
+  </si>
+  <si>
+    <t>333-333-3333</t>
+  </si>
+  <si>
+    <t>C:\Users\Hp Lap\Desktop\sam.jpg</t>
+  </si>
+  <si>
+    <t>Others</t>
   </si>
 </sst>
 </file>
@@ -192,9 +250,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -512,7 +572,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1C79AA5-8234-4F13-BF01-B15408781F23}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -590,6 +650,132 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FC8429E-0892-46D3-BF43-DE62D7D5945D}">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>777</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="3">
+        <v>35437</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="3">
+        <v>28132</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7332165E-EE68-4ACD-AB10-562959A5A3C8}">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -669,7 +855,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79C295C5-3059-4021-9B7B-5E8AF3E18E33}">
   <dimension ref="A1:F2"/>
   <sheetViews>
